--- a/report.xlsx
+++ b/report.xlsx
@@ -476,7 +476,9 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
